--- a/超速购互联网小卖部项目/DB设计/系统管理基础SQL.xlsx
+++ b/超速购互联网小卖部项目/DB设计/系统管理基础SQL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\MuzeyC_Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\MuzeyC_Project\DocumentManage.git\trunk\超速购互联网小卖部项目\DB设计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58248822-F6FB-4ACF-85F1-7AE9590AD0FF}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D26F3EB6-7829-46FB-AF7B-0D2C8B981203}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7040" xr2:uid="{90062A8D-280E-4EA8-BEA5-6E675B3038D0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7040" activeTab="2" xr2:uid="{90062A8D-280E-4EA8-BEA5-6E675B3038D0}"/>
   </bookViews>
   <sheets>
     <sheet name="用户管理" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="菜单管理" sheetId="3" r:id="rId3"/>
     <sheet name="角色菜单管理" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="59">
   <si>
     <t>用户编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -225,6 +225,38 @@
   </si>
   <si>
     <t>insert into Sys_Rolemenuforbid(roleid,menuid,deleteflag,createtime,createuser,updatetime,updateuser) values(</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>商户管理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据字典</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sys007_CodeList</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>商户基本信息</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sys005_DMBasicInfo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户管理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户基本信息</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sys006_UMBasicInfo</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -687,7 +719,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3170DFE9-8345-4E6B-979C-785FBD33ADCD}">
   <dimension ref="A1:S14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
@@ -964,10 +996,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B287FB32-98B2-459C-A6DB-2C66F5694C7E}">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1114,11 +1146,11 @@
         <v>48</v>
       </c>
       <c r="P3" s="3" t="str">
-        <f t="shared" ref="P3:P5" si="0">"'"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"','"&amp;F3&amp;"','"&amp;G3&amp;"','"&amp;H3&amp;"','"&amp;I3&amp;"','"&amp;J3&amp;"','"&amp;K3&amp;"','"&amp;L3&amp;"','"&amp;M3&amp;"','"&amp;N3&amp;"');"</f>
+        <f t="shared" ref="P3:P10" si="0">"'"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"','"&amp;F3&amp;"','"&amp;G3&amp;"','"&amp;H3&amp;"','"&amp;I3&amp;"','"&amp;J3&amp;"','"&amp;K3&amp;"','"&amp;L3&amp;"','"&amp;M3&amp;"','"&amp;N3&amp;"');"</f>
         <v>'100','1','100','菜单管理','fa-map-o','Sys001_MenuManage','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
       <c r="Q3" t="str">
-        <f t="shared" ref="Q3:Q5" si="1">_xlfn.CONCAT(O3,P3)</f>
+        <f t="shared" ref="Q3:Q10" si="1">_xlfn.CONCAT(O3,P3)</f>
         <v>insert into Sys_Menu(id,seqno,parentid,menutitle,iconname,pagename,issystemmenu,deleteflag,createtime,createuser,updatetime,updateuser) values('100','1','100','菜单管理','fa-map-o','Sys001_MenuManage','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
     </row>
@@ -1224,6 +1256,245 @@
       <c r="Q5" t="str">
         <f t="shared" si="1"/>
         <v>insert into Sys_Menu(id,seqno,parentid,menutitle,iconname,pagename,issystemmenu,deleteflag,createtime,createuser,updatetime,updateuser) values('102','3','100','角色管理','fa-users','Sys003_RoleManage','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>103</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+      <c r="F6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>'103','4','100','数据字典','','Sys007_CodeList','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+      <c r="Q6" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Sys_Menu(id,seqno,parentid,menutitle,iconname,pagename,issystemmenu,deleteflag,createtime,createuser,updatetime,updateuser) values('103','4','100','数据字典','','Sys007_CodeList','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>104</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N7" t="s">
+        <v>15</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>'104','2','0','商户管理','','','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+      <c r="Q7" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Sys_Menu(id,seqno,parentid,menutitle,iconname,pagename,issystemmenu,deleteflag,createtime,createuser,updatetime,updateuser) values('104','2','0','商户管理','','','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>105</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>104</v>
+      </c>
+      <c r="F8" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N8" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>'105','1','104','商户基本信息','','Sys005_DMBasicInfo','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+      <c r="Q8" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Sys_Menu(id,seqno,parentid,menutitle,iconname,pagename,issystemmenu,deleteflag,createtime,createuser,updatetime,updateuser) values('105','1','104','商户基本信息','','Sys005_DMBasicInfo','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>106</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N9" t="s">
+        <v>15</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>'106','3','0','用户管理','','','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+      <c r="Q9" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Sys_Menu(id,seqno,parentid,menutitle,iconname,pagename,issystemmenu,deleteflag,createtime,createuser,updatetime,updateuser) values('106','3','0','用户管理','','','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>107</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>106</v>
+      </c>
+      <c r="F10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" t="s">
+        <v>15</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N10" t="s">
+        <v>15</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>'107','1','106','用户基本信息','','Sys006_UMBasicInfo','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+      <c r="Q10" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Sys_Menu(id,seqno,parentid,menutitle,iconname,pagename,issystemmenu,deleteflag,createtime,createuser,updatetime,updateuser) values('107','1','106','用户基本信息','','Sys006_UMBasicInfo','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
     </row>
   </sheetData>

--- a/超速购互联网小卖部项目/DB设计/系统管理基础SQL.xlsx
+++ b/超速购互联网小卖部项目/DB设计/系统管理基础SQL.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\MuzeyC_Project\DocumentManage.git\trunk\超速购互联网小卖部项目\DB设计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D26F3EB6-7829-46FB-AF7B-0D2C8B981203}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D0AE0E1-16EB-4170-8312-3EE7EB8C5A79}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7040" activeTab="2" xr2:uid="{90062A8D-280E-4EA8-BEA5-6E675B3038D0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7040" xr2:uid="{90062A8D-280E-4EA8-BEA5-6E675B3038D0}"/>
   </bookViews>
   <sheets>
     <sheet name="用户管理" sheetId="1" r:id="rId1"/>
     <sheet name="角色管理" sheetId="2" r:id="rId2"/>
     <sheet name="菜单管理" sheetId="3" r:id="rId3"/>
     <sheet name="角色菜单管理" sheetId="4" r:id="rId4"/>
+    <sheet name="数据字典" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="132">
   <si>
     <t>用户编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -257,6 +258,290 @@
   </si>
   <si>
     <t>Sys006_UMBasicInfo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>父级编号</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>编码</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片管理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品基本信息</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>街道信息</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>小区信息</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>商户商品信息</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>商户订单</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>商户订单详细</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号（数据库自动增长不需要填写）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>本地图片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络图片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Picture_Type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROOT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片用途</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Picture_Use_Type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告图片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品图片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>00</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>02</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户头像</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>03</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>商户照片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>04</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>商户状态</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dm_State</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>待审批</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>运营中</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>休息</t>
+  </si>
+  <si>
+    <t>休息</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>非法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单状态</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Order_State</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>待接单</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>已接单</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>配送中</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消</t>
+  </si>
+  <si>
+    <t>订单详细状态</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrderDetial_State</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量不足</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Um_Type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通用户</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>推广用户</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>官方用户</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>商户用户</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入渠道</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Um_Road</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>线下扫码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户推荐</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信公众号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信小程序</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信推广</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>网站</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>insert into sys_codelist(id,parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values(</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -320,7 +605,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -336,6 +621,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,7 +663,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -400,6 +691,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -719,8 +1016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3170DFE9-8345-4E6B-979C-785FBD33ADCD}">
   <dimension ref="A1:S14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -897,7 +1194,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -996,14 +1293,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B287FB32-98B2-459C-A6DB-2C66F5694C7E}">
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A10"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="11" customWidth="1"/>
     <col min="5" max="5" width="13.5" customWidth="1"/>
     <col min="8" max="8" width="13.33203125" customWidth="1"/>
     <col min="9" max="9" width="11.33203125" customWidth="1"/>
@@ -1013,8 +1311,8 @@
       <c r="A1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>19</v>
+      <c r="B1" s="11" t="s">
+        <v>69</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>30</v>
@@ -1146,11 +1444,11 @@
         <v>48</v>
       </c>
       <c r="P3" s="3" t="str">
-        <f t="shared" ref="P3:P10" si="0">"'"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"','"&amp;F3&amp;"','"&amp;G3&amp;"','"&amp;H3&amp;"','"&amp;I3&amp;"','"&amp;J3&amp;"','"&amp;K3&amp;"','"&amp;L3&amp;"','"&amp;M3&amp;"','"&amp;N3&amp;"');"</f>
+        <f t="shared" ref="P3:P17" si="0">"'"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"','"&amp;F3&amp;"','"&amp;G3&amp;"','"&amp;H3&amp;"','"&amp;I3&amp;"','"&amp;J3&amp;"','"&amp;K3&amp;"','"&amp;L3&amp;"','"&amp;M3&amp;"','"&amp;N3&amp;"');"</f>
         <v>'100','1','100','菜单管理','fa-map-o','Sys001_MenuManage','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
       <c r="Q3" t="str">
-        <f t="shared" ref="Q3:Q10" si="1">_xlfn.CONCAT(O3,P3)</f>
+        <f t="shared" ref="Q3:Q17" si="1">_xlfn.CONCAT(O3,P3)</f>
         <v>insert into Sys_Menu(id,seqno,parentid,menutitle,iconname,pagename,issystemmenu,deleteflag,createtime,createuser,updatetime,updateuser) values('100','1','100','菜单管理','fa-map-o','Sys001_MenuManage','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
     </row>
@@ -1315,13 +1613,13 @@
         <v>104</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F7" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -1346,11 +1644,11 @@
       </c>
       <c r="P7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'104','2','0','商户管理','','','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+        <v>'104','5','100','图片管理','','','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
       <c r="Q7" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Sys_Menu(id,seqno,parentid,menutitle,iconname,pagename,issystemmenu,deleteflag,createtime,createuser,updatetime,updateuser) values('104','2','0','商户管理','','','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+        <v>insert into Sys_Menu(id,seqno,parentid,menutitle,iconname,pagename,issystemmenu,deleteflag,createtime,createuser,updatetime,updateuser) values('104','5','100','图片管理','','','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1361,16 +1659,13 @@
         <v>105</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E8">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F8" t="s">
-        <v>54</v>
-      </c>
-      <c r="H8" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -1395,11 +1690,11 @@
       </c>
       <c r="P8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'105','1','104','商户基本信息','','Sys005_DMBasicInfo','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+        <v>'105','6','100','商品基本信息','','','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
       <c r="Q8" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Sys_Menu(id,seqno,parentid,menutitle,iconname,pagename,issystemmenu,deleteflag,createtime,createuser,updatetime,updateuser) values('105','1','104','商户基本信息','','Sys005_DMBasicInfo','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+        <v>insert into Sys_Menu(id,seqno,parentid,menutitle,iconname,pagename,issystemmenu,deleteflag,createtime,createuser,updatetime,updateuser) values('105','6','100','商品基本信息','','','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1410,13 +1705,13 @@
         <v>106</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -1441,11 +1736,11 @@
       </c>
       <c r="P9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'106','3','0','用户管理','','','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+        <v>'106','7','100','街道信息','','','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
       <c r="Q9" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Sys_Menu(id,seqno,parentid,menutitle,iconname,pagename,issystemmenu,deleteflag,createtime,createuser,updatetime,updateuser) values('106','3','0','用户管理','','','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+        <v>insert into Sys_Menu(id,seqno,parentid,menutitle,iconname,pagename,issystemmenu,deleteflag,createtime,createuser,updatetime,updateuser) values('106','7','100','街道信息','','','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1456,16 +1751,13 @@
         <v>107</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E10">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F10" t="s">
-        <v>57</v>
-      </c>
-      <c r="H10" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -1490,11 +1782,339 @@
       </c>
       <c r="P10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'107','1','106','用户基本信息','','Sys006_UMBasicInfo','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+        <v>'107','8','100','小区信息','','','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
       <c r="Q10" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Sys_Menu(id,seqno,parentid,menutitle,iconname,pagename,issystemmenu,deleteflag,createtime,createuser,updatetime,updateuser) values('107','1','106','用户基本信息','','Sys006_UMBasicInfo','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+        <v>insert into Sys_Menu(id,seqno,parentid,menutitle,iconname,pagename,issystemmenu,deleteflag,createtime,createuser,updatetime,updateuser) values('107','8','100','小区信息','','','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>108</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" t="s">
+        <v>15</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11" t="s">
+        <v>15</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>'108','2','0','商户管理','','','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+      <c r="Q11" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Sys_Menu(id,seqno,parentid,menutitle,iconname,pagename,issystemmenu,deleteflag,createtime,createuser,updatetime,updateuser) values('108','2','0','商户管理','','','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>109</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>108</v>
+      </c>
+      <c r="F12" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12" t="s">
+        <v>55</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N12" t="s">
+        <v>15</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>'109','1','108','商户基本信息','','Sys005_DMBasicInfo','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+      <c r="Q12" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Sys_Menu(id,seqno,parentid,menutitle,iconname,pagename,issystemmenu,deleteflag,createtime,createuser,updatetime,updateuser) values('109','1','108','商户基本信息','','Sys005_DMBasicInfo','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>110</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>108</v>
+      </c>
+      <c r="F13" t="s">
+        <v>66</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N13" t="s">
+        <v>15</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>'110','2','108','商户商品信息','','','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+      <c r="Q13" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Sys_Menu(id,seqno,parentid,menutitle,iconname,pagename,issystemmenu,deleteflag,createtime,createuser,updatetime,updateuser) values('110','2','108','商户商品信息','','','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>111</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>108</v>
+      </c>
+      <c r="F14" t="s">
+        <v>67</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" t="s">
+        <v>15</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N14" t="s">
+        <v>15</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>'111','3','108','商户订单','','','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+      <c r="Q14" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Sys_Menu(id,seqno,parentid,menutitle,iconname,pagename,issystemmenu,deleteflag,createtime,createuser,updatetime,updateuser) values('111','3','108','商户订单','','','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>112</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>108</v>
+      </c>
+      <c r="F15" t="s">
+        <v>68</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" t="s">
+        <v>15</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N15" t="s">
+        <v>15</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>'112','4','108','商户订单详细','','','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+      <c r="Q15" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Sys_Menu(id,seqno,parentid,menutitle,iconname,pagename,issystemmenu,deleteflag,createtime,createuser,updatetime,updateuser) values('112','4','108','商户订单详细','','','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>113</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>56</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" t="s">
+        <v>15</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N16" t="s">
+        <v>15</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>'113','3','0','用户管理','','','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+      <c r="Q16" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Sys_Menu(id,seqno,parentid,menutitle,iconname,pagename,issystemmenu,deleteflag,createtime,createuser,updatetime,updateuser) values('113','3','0','用户管理','','','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>114</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>113</v>
+      </c>
+      <c r="F17" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" t="s">
+        <v>58</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" t="s">
+        <v>15</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N17" t="s">
+        <v>15</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>'114','1','113','用户基本信息','','Sys006_UMBasicInfo','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+      <c r="Q17" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Sys_Menu(id,seqno,parentid,menutitle,iconname,pagename,issystemmenu,deleteflag,createtime,createuser,updatetime,updateuser) values('114','1','113','用户基本信息','','Sys006_UMBasicInfo','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
     </row>
   </sheetData>
@@ -1508,7 +2128,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1559,4 +2179,1535 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88300762-FAA3-4692-AF6D-95E8DDBE78D3}">
+  <dimension ref="A1:M38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="8.6640625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="L2" s="3" t="str">
+        <f>"'"&amp;B2&amp;"','"&amp;C2&amp;"','"&amp;D2&amp;"','"&amp;E2&amp;"','"&amp;F2&amp;"','"&amp;G2&amp;"','"&amp;H2&amp;"','"&amp;I2&amp;"','"&amp;J2&amp;"');"</f>
+        <v>'1','ROOT','图片类型','Picture_Type','1','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+      <c r="M2" t="str">
+        <f>_xlfn.CONCAT(K2,L2)</f>
+        <v>insert into sys_codelist(id,parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('1','ROOT','图片类型','Picture_Type','1','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="L3" s="3" t="str">
+        <f t="shared" ref="L3:L38" si="0">"'"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"','"&amp;F3&amp;"','"&amp;G3&amp;"','"&amp;H3&amp;"','"&amp;I3&amp;"','"&amp;J3&amp;"');"</f>
+        <v>'2','1','本地图片','0','1','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+      <c r="M3" t="str">
+        <f t="shared" ref="M3:M38" si="1">_xlfn.CONCAT(K3,L3)</f>
+        <v>insert into sys_codelist(id,parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('2','1','本地图片','0','1','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="L4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>'3','1','网络图片','1','2','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+      <c r="M4" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into sys_codelist(id,parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('3','1','网络图片','1','2','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="L5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>'4','ROOT','图片用途','Picture_Use_Type','2','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+      <c r="M5" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into sys_codelist(id,parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('4','ROOT','图片用途','Picture_Use_Type','2','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="L6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>'5','4','系统','00','1','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+      <c r="M6" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into sys_codelist(id,parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('5','4','系统','00','1','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="L7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>'6','4','广告图片','01','2','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into sys_codelist(id,parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('6','4','广告图片','01','2','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="L8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>'7','4','商品图片','02','3','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into sys_codelist(id,parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('7','4','商品图片','02','3','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="L9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>'8','4','用户头像','03','4','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into sys_codelist(id,parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('8','4','用户头像','03','4','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="L10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>'9','4','商户照片','04','5','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into sys_codelist(id,parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('9','4','商户照片','04','5','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="L11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>'10','ROOT','商户状态','Dm_State','3','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into sys_codelist(id,parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('10','ROOT','商户状态','Dm_State','3','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="L12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>'11','10','待审批','0','1','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into sys_codelist(id,parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('11','10','待审批','0','1','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="L13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>'12','10','运营中','1','2','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into sys_codelist(id,parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('12','10','运营中','1','2','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="L14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>'13','10','休息','2','3','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+      <c r="M14" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into sys_codelist(id,parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('13','10','休息','2','3','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="L15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>'14','10','关闭','3','4','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into sys_codelist(id,parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('14','10','关闭','3','4','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>101</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="L16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>'15','10','非法','4','5','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+      <c r="M16" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into sys_codelist(id,parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('15','10','非法','4','5','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" t="s">
+        <v>15</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="L17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>'16','ROOT','订单状态','Order_State','4','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+      <c r="M17" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into sys_codelist(id,parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('16','ROOT','订单状态','Order_State','4','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>106</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" t="s">
+        <v>15</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="L18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>'17','16','待接单','0','1','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+      <c r="M18" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into sys_codelist(id,parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('17','16','待接单','0','1','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>16</v>
+      </c>
+      <c r="D19" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" t="s">
+        <v>15</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="L19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>'18','16','已接单','1','2','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+      <c r="M19" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into sys_codelist(id,parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('18','16','已接单','1','2','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>16</v>
+      </c>
+      <c r="D20" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20" t="s">
+        <v>15</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="L20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>'19','16','配送中','2','3','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+      <c r="M20" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into sys_codelist(id,parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('19','16','配送中','2','3','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>16</v>
+      </c>
+      <c r="D21" t="s">
+        <v>109</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J21" t="s">
+        <v>15</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="L21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>'20','16','完成','3','4','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+      <c r="M21" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into sys_codelist(id,parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('20','16','完成','3','4','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>16</v>
+      </c>
+      <c r="D22" t="s">
+        <v>110</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F22">
+        <v>5</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J22" t="s">
+        <v>15</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="L22" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>'21','16','取消','4','5','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+      <c r="M22" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into sys_codelist(id,parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('21','16','取消','4','5','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" t="s">
+        <v>111</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F23">
+        <v>5</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J23" t="s">
+        <v>15</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="L23" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>'22','ROOT','订单详细状态','OrderDetial_State','5','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+      <c r="M23" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into sys_codelist(id,parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('22','ROOT','订单详细状态','OrderDetial_State','5','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <v>22</v>
+      </c>
+      <c r="D24" t="s">
+        <v>113</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24" t="s">
+        <v>15</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="L24" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>'23','22','正常','0','1','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+      <c r="M24" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into sys_codelist(id,parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('23','22','正常','0','1','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <v>22</v>
+      </c>
+      <c r="D25" t="s">
+        <v>114</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="L25" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>'24','22','取消','1','2','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+      <c r="M25" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into sys_codelist(id,parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('24','22','取消','1','2','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <v>22</v>
+      </c>
+      <c r="D26" t="s">
+        <v>115</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J26" t="s">
+        <v>15</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="L26" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>'25','22','数量不足','2','3','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+      <c r="M26" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into sys_codelist(id,parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('25','22','数量不足','2','3','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" t="s">
+        <v>116</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F27">
+        <v>6</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J27" t="s">
+        <v>15</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="L27" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>'26','ROOT','用户类型','Um_Type','6','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+      <c r="M27" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into sys_codelist(id,parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('26','ROOT','用户类型','Um_Type','6','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>118</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J28" t="s">
+        <v>15</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="L28" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>'27','26','普通用户','0','1','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+      <c r="M28" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into sys_codelist(id,parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('27','26','普通用户','0','1','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>119</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J29" t="s">
+        <v>15</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="L29" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>'28','26','推广用户','1','2','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+      <c r="M29" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into sys_codelist(id,parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('28','26','推广用户','1','2','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>120</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F30">
+        <v>3</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H30" t="s">
+        <v>15</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J30" t="s">
+        <v>15</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="L30" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>'29','26','官方用户','2','3','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+      <c r="M30" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into sys_codelist(id,parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('29','26','官方用户','2','3','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>121</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H31" t="s">
+        <v>15</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J31" t="s">
+        <v>15</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="L31" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>'30','26','商户用户','3','4','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+      <c r="M31" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into sys_codelist(id,parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('30','26','商户用户','3','4','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" t="s">
+        <v>122</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F32">
+        <v>7</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H32" t="s">
+        <v>15</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J32" t="s">
+        <v>15</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="L32" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>'31','ROOT','加入渠道','Um_Road','7','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+      <c r="M32" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into sys_codelist(id,parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('31','ROOT','加入渠道','Um_Road','7','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33">
+        <v>31</v>
+      </c>
+      <c r="D33" t="s">
+        <v>124</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H33" t="s">
+        <v>15</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J33" t="s">
+        <v>15</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="L33" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>'32','31','线下扫码','0','1','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+      <c r="M33" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into sys_codelist(id,parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('32','31','线下扫码','0','1','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34">
+        <v>31</v>
+      </c>
+      <c r="D34" t="s">
+        <v>125</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H34" t="s">
+        <v>15</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J34" t="s">
+        <v>15</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="L34" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>'33','31','用户推荐','1','2','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+      <c r="M34" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into sys_codelist(id,parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('33','31','用户推荐','1','2','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <v>34</v>
+      </c>
+      <c r="C35">
+        <v>31</v>
+      </c>
+      <c r="D35" t="s">
+        <v>126</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F35">
+        <v>3</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H35" t="s">
+        <v>15</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J35" t="s">
+        <v>15</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="L35" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>'34','31','微信公众号','2','3','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+      <c r="M35" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into sys_codelist(id,parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('34','31','微信公众号','2','3','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="C36">
+        <v>31</v>
+      </c>
+      <c r="D36" t="s">
+        <v>127</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F36">
+        <v>4</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H36" t="s">
+        <v>15</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J36" t="s">
+        <v>15</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="L36" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>'35','31','微信小程序','3','4','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+      <c r="M36" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into sys_codelist(id,parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('35','31','微信小程序','3','4','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="C37">
+        <v>31</v>
+      </c>
+      <c r="D37" t="s">
+        <v>128</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F37">
+        <v>5</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H37" t="s">
+        <v>15</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J37" t="s">
+        <v>15</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="L37" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>'36','31','微信推广','4','5','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+      <c r="M37" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into sys_codelist(id,parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('36','31','微信推广','4','5','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <v>37</v>
+      </c>
+      <c r="C38">
+        <v>31</v>
+      </c>
+      <c r="D38" t="s">
+        <v>129</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F38">
+        <v>6</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H38" t="s">
+        <v>15</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J38" t="s">
+        <v>15</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="L38" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>'37','31','网站','5','6','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+      <c r="M38" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into sys_codelist(id,parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('37','31','网站','5','6','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/超速购互联网小卖部项目/DB设计/系统管理基础SQL.xlsx
+++ b/超速购互联网小卖部项目/DB设计/系统管理基础SQL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\MuzeyC_Project\DocumentManage.git\trunk\超速购互联网小卖部项目\DB设计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D0AE0E1-16EB-4170-8312-3EE7EB8C5A79}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5E5224-E856-4B75-9D9A-45FD52586AAB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7040" xr2:uid="{90062A8D-280E-4EA8-BEA5-6E675B3038D0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7040" activeTab="4" xr2:uid="{90062A8D-280E-4EA8-BEA5-6E675B3038D0}"/>
   </bookViews>
   <sheets>
     <sheet name="用户管理" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="132">
   <si>
     <t>用户编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -541,7 +541,7 @@
     <t>5</t>
   </si>
   <si>
-    <t>insert into sys_codelist(id,parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values(</t>
+    <t>insert into sys_codelist(parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values(</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1016,7 +1016,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3170DFE9-8345-4E6B-979C-785FBD33ADCD}">
   <dimension ref="A1:S14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
@@ -2185,8 +2185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88300762-FAA3-4692-AF6D-95E8DDBE78D3}">
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2227,9 +2227,6 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B2">
-        <v>1</v>
-      </c>
       <c r="C2" t="s">
         <v>74</v>
       </c>
@@ -2258,20 +2255,17 @@
         <v>131</v>
       </c>
       <c r="L2" s="3" t="str">
-        <f>"'"&amp;B2&amp;"','"&amp;C2&amp;"','"&amp;D2&amp;"','"&amp;E2&amp;"','"&amp;F2&amp;"','"&amp;G2&amp;"','"&amp;H2&amp;"','"&amp;I2&amp;"','"&amp;J2&amp;"');"</f>
-        <v>'1','ROOT','图片类型','Picture_Type','1','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+        <f>"'"&amp;C2&amp;"','"&amp;D2&amp;"','"&amp;E2&amp;"','"&amp;F2&amp;"','"&amp;G2&amp;"','"&amp;H2&amp;"','"&amp;I2&amp;"','"&amp;J2&amp;"');"</f>
+        <v>'ROOT','图片类型','Picture_Type','1','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
       <c r="M2" t="str">
         <f>_xlfn.CONCAT(K2,L2)</f>
-        <v>insert into sys_codelist(id,parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('1','ROOT','图片类型','Picture_Type','1','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+        <v>insert into sys_codelist(parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('ROOT','图片类型','Picture_Type','1','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
+      <c r="C3" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="D3" t="s">
         <v>70</v>
@@ -2298,20 +2292,17 @@
         <v>131</v>
       </c>
       <c r="L3" s="3" t="str">
-        <f t="shared" ref="L3:L38" si="0">"'"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"','"&amp;F3&amp;"','"&amp;G3&amp;"','"&amp;H3&amp;"','"&amp;I3&amp;"','"&amp;J3&amp;"');"</f>
-        <v>'2','1','本地图片','0','1','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+        <f t="shared" ref="L3:L38" si="0">"'"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"','"&amp;F3&amp;"','"&amp;G3&amp;"','"&amp;H3&amp;"','"&amp;I3&amp;"','"&amp;J3&amp;"');"</f>
+        <v>'Picture_Type','本地图片','0','1','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
       <c r="M3" t="str">
         <f t="shared" ref="M3:M38" si="1">_xlfn.CONCAT(K3,L3)</f>
-        <v>insert into sys_codelist(id,parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('2','1','本地图片','0','1','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+        <v>insert into sys_codelist(parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('Picture_Type','本地图片','0','1','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
+      <c r="C4" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="D4" t="s">
         <v>71</v>
@@ -2339,17 +2330,14 @@
       </c>
       <c r="L4" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'3','1','网络图片','1','2','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+        <v>'Picture_Type','网络图片','1','2','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
       <c r="M4" t="str">
         <f t="shared" si="1"/>
-        <v>insert into sys_codelist(id,parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('3','1','网络图片','1','2','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+        <v>insert into sys_codelist(parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('Picture_Type','网络图片','1','2','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B5">
-        <v>4</v>
-      </c>
       <c r="C5" t="s">
         <v>74</v>
       </c>
@@ -2379,19 +2367,16 @@
       </c>
       <c r="L5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'4','ROOT','图片用途','Picture_Use_Type','2','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+        <v>'ROOT','图片用途','Picture_Use_Type','2','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
       <c r="M5" t="str">
         <f t="shared" si="1"/>
-        <v>insert into sys_codelist(id,parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('4','ROOT','图片用途','Picture_Use_Type','2','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+        <v>insert into sys_codelist(parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('ROOT','图片用途','Picture_Use_Type','2','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
+      <c r="C6" s="7" t="s">
+        <v>76</v>
       </c>
       <c r="D6" t="s">
         <v>77</v>
@@ -2419,19 +2404,16 @@
       </c>
       <c r="L6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'5','4','系统','00','1','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+        <v>'Picture_Use_Type','系统','00','1','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
       <c r="M6" t="str">
         <f t="shared" si="1"/>
-        <v>insert into sys_codelist(id,parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('5','4','系统','00','1','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+        <v>insert into sys_codelist(parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('Picture_Use_Type','系统','00','1','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>4</v>
+      <c r="C7" s="7" t="s">
+        <v>76</v>
       </c>
       <c r="D7" t="s">
         <v>78</v>
@@ -2459,19 +2441,16 @@
       </c>
       <c r="L7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'6','4','广告图片','01','2','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+        <v>'Picture_Use_Type','广告图片','01','2','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
       <c r="M7" t="str">
         <f t="shared" si="1"/>
-        <v>insert into sys_codelist(id,parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('6','4','广告图片','01','2','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+        <v>insert into sys_codelist(parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('Picture_Use_Type','广告图片','01','2','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>4</v>
+      <c r="C8" s="7" t="s">
+        <v>76</v>
       </c>
       <c r="D8" t="s">
         <v>79</v>
@@ -2499,19 +2478,16 @@
       </c>
       <c r="L8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'7','4','商品图片','02','3','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+        <v>'Picture_Use_Type','商品图片','02','3','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
       <c r="M8" t="str">
         <f t="shared" si="1"/>
-        <v>insert into sys_codelist(id,parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('7','4','商品图片','02','3','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+        <v>insert into sys_codelist(parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('Picture_Use_Type','商品图片','02','3','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
+      <c r="C9" s="7" t="s">
+        <v>76</v>
       </c>
       <c r="D9" t="s">
         <v>83</v>
@@ -2539,19 +2515,16 @@
       </c>
       <c r="L9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'8','4','用户头像','03','4','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+        <v>'Picture_Use_Type','用户头像','03','4','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
       <c r="M9" t="str">
         <f t="shared" si="1"/>
-        <v>insert into sys_codelist(id,parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('8','4','用户头像','03','4','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+        <v>insert into sys_codelist(parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('Picture_Use_Type','用户头像','03','4','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10">
-        <v>4</v>
+      <c r="C10" s="7" t="s">
+        <v>76</v>
       </c>
       <c r="D10" t="s">
         <v>85</v>
@@ -2579,17 +2552,14 @@
       </c>
       <c r="L10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'9','4','商户照片','04','5','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+        <v>'Picture_Use_Type','商户照片','04','5','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
       <c r="M10" t="str">
         <f t="shared" si="1"/>
-        <v>insert into sys_codelist(id,parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('9','4','商户照片','04','5','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+        <v>insert into sys_codelist(parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('Picture_Use_Type','商户照片','04','5','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B11">
-        <v>10</v>
-      </c>
       <c r="C11" t="s">
         <v>74</v>
       </c>
@@ -2619,19 +2589,16 @@
       </c>
       <c r="L11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'10','ROOT','商户状态','Dm_State','3','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+        <v>'ROOT','商户状态','Dm_State','3','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
       <c r="M11" t="str">
         <f t="shared" si="1"/>
-        <v>insert into sys_codelist(id,parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('10','ROOT','商户状态','Dm_State','3','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+        <v>insert into sys_codelist(parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('ROOT','商户状态','Dm_State','3','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B12">
-        <v>11</v>
-      </c>
-      <c r="C12">
-        <v>10</v>
+      <c r="C12" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="D12" t="s">
         <v>89</v>
@@ -2659,19 +2626,16 @@
       </c>
       <c r="L12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'11','10','待审批','0','1','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+        <v>'Dm_State','待审批','0','1','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
       <c r="M12" t="str">
         <f t="shared" si="1"/>
-        <v>insert into sys_codelist(id,parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('11','10','待审批','0','1','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+        <v>insert into sys_codelist(parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('Dm_State','待审批','0','1','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B13">
-        <v>12</v>
-      </c>
-      <c r="C13">
-        <v>10</v>
+      <c r="C13" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="D13" t="s">
         <v>91</v>
@@ -2699,19 +2663,16 @@
       </c>
       <c r="L13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'12','10','运营中','1','2','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+        <v>'Dm_State','运营中','1','2','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
       <c r="M13" t="str">
         <f t="shared" si="1"/>
-        <v>insert into sys_codelist(id,parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('12','10','运营中','1','2','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+        <v>insert into sys_codelist(parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('Dm_State','运营中','1','2','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B14">
-        <v>13</v>
-      </c>
-      <c r="C14">
-        <v>10</v>
+      <c r="C14" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="D14" t="s">
         <v>95</v>
@@ -2739,19 +2700,16 @@
       </c>
       <c r="L14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'13','10','休息','2','3','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+        <v>'Dm_State','休息','2','3','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
       <c r="M14" t="str">
         <f t="shared" si="1"/>
-        <v>insert into sys_codelist(id,parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('13','10','休息','2','3','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+        <v>insert into sys_codelist(parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('Dm_State','休息','2','3','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B15">
-        <v>14</v>
-      </c>
-      <c r="C15">
-        <v>10</v>
+      <c r="C15" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="D15" t="s">
         <v>98</v>
@@ -2779,19 +2737,16 @@
       </c>
       <c r="L15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'14','10','关闭','3','4','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+        <v>'Dm_State','关闭','3','4','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
       <c r="M15" t="str">
         <f t="shared" si="1"/>
-        <v>insert into sys_codelist(id,parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('14','10','关闭','3','4','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+        <v>insert into sys_codelist(parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('Dm_State','关闭','3','4','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B16">
-        <v>15</v>
-      </c>
-      <c r="C16">
-        <v>10</v>
+      <c r="C16" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="D16" t="s">
         <v>101</v>
@@ -2819,17 +2774,14 @@
       </c>
       <c r="L16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'15','10','非法','4','5','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+        <v>'Dm_State','非法','4','5','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
       <c r="M16" t="str">
         <f t="shared" si="1"/>
-        <v>insert into sys_codelist(id,parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('15','10','非法','4','5','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B17">
-        <v>16</v>
-      </c>
+        <v>insert into sys_codelist(parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('Dm_State','非法','4','5','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>74</v>
       </c>
@@ -2859,19 +2811,16 @@
       </c>
       <c r="L17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'16','ROOT','订单状态','Order_State','4','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+        <v>'ROOT','订单状态','Order_State','4','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
       <c r="M17" t="str">
         <f t="shared" si="1"/>
-        <v>insert into sys_codelist(id,parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('16','ROOT','订单状态','Order_State','4','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B18">
-        <v>17</v>
-      </c>
-      <c r="C18">
-        <v>16</v>
+        <v>insert into sys_codelist(parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('ROOT','订单状态','Order_State','4','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C18" s="7" t="s">
+        <v>105</v>
       </c>
       <c r="D18" t="s">
         <v>106</v>
@@ -2899,19 +2848,16 @@
       </c>
       <c r="L18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'17','16','待接单','0','1','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+        <v>'Order_State','待接单','0','1','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
       <c r="M18" t="str">
         <f t="shared" si="1"/>
-        <v>insert into sys_codelist(id,parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('17','16','待接单','0','1','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B19">
-        <v>18</v>
-      </c>
-      <c r="C19">
-        <v>16</v>
+        <v>insert into sys_codelist(parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('Order_State','待接单','0','1','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C19" s="7" t="s">
+        <v>105</v>
       </c>
       <c r="D19" t="s">
         <v>107</v>
@@ -2939,19 +2885,16 @@
       </c>
       <c r="L19" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'18','16','已接单','1','2','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+        <v>'Order_State','已接单','1','2','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
       <c r="M19" t="str">
         <f t="shared" si="1"/>
-        <v>insert into sys_codelist(id,parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('18','16','已接单','1','2','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B20">
-        <v>19</v>
-      </c>
-      <c r="C20">
-        <v>16</v>
+        <v>insert into sys_codelist(parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('Order_State','已接单','1','2','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C20" s="7" t="s">
+        <v>105</v>
       </c>
       <c r="D20" t="s">
         <v>108</v>
@@ -2979,19 +2922,16 @@
       </c>
       <c r="L20" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'19','16','配送中','2','3','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+        <v>'Order_State','配送中','2','3','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
       <c r="M20" t="str">
         <f t="shared" si="1"/>
-        <v>insert into sys_codelist(id,parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('19','16','配送中','2','3','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B21">
-        <v>20</v>
-      </c>
-      <c r="C21">
-        <v>16</v>
+        <v>insert into sys_codelist(parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('Order_State','配送中','2','3','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C21" s="7" t="s">
+        <v>105</v>
       </c>
       <c r="D21" t="s">
         <v>109</v>
@@ -3019,19 +2959,16 @@
       </c>
       <c r="L21" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'20','16','完成','3','4','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+        <v>'Order_State','完成','3','4','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
       <c r="M21" t="str">
         <f t="shared" si="1"/>
-        <v>insert into sys_codelist(id,parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('20','16','完成','3','4','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B22">
-        <v>21</v>
-      </c>
-      <c r="C22">
-        <v>16</v>
+        <v>insert into sys_codelist(parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('Order_State','完成','3','4','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C22" s="7" t="s">
+        <v>105</v>
       </c>
       <c r="D22" t="s">
         <v>110</v>
@@ -3059,17 +2996,14 @@
       </c>
       <c r="L22" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'21','16','取消','4','5','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+        <v>'Order_State','取消','4','5','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
       <c r="M22" t="str">
         <f t="shared" si="1"/>
-        <v>insert into sys_codelist(id,parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('21','16','取消','4','5','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B23">
-        <v>22</v>
-      </c>
+        <v>insert into sys_codelist(parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('Order_State','取消','4','5','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>74</v>
       </c>
@@ -3099,19 +3033,16 @@
       </c>
       <c r="L23" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'22','ROOT','订单详细状态','OrderDetial_State','5','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+        <v>'ROOT','订单详细状态','OrderDetial_State','5','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
       <c r="M23" t="str">
         <f t="shared" si="1"/>
-        <v>insert into sys_codelist(id,parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('22','ROOT','订单详细状态','OrderDetial_State','5','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B24">
-        <v>23</v>
-      </c>
-      <c r="C24">
-        <v>22</v>
+        <v>insert into sys_codelist(parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('ROOT','订单详细状态','OrderDetial_State','5','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C24" s="7" t="s">
+        <v>112</v>
       </c>
       <c r="D24" t="s">
         <v>113</v>
@@ -3139,19 +3070,16 @@
       </c>
       <c r="L24" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'23','22','正常','0','1','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+        <v>'OrderDetial_State','正常','0','1','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
       <c r="M24" t="str">
         <f t="shared" si="1"/>
-        <v>insert into sys_codelist(id,parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('23','22','正常','0','1','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B25">
-        <v>24</v>
-      </c>
-      <c r="C25">
-        <v>22</v>
+        <v>insert into sys_codelist(parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('OrderDetial_State','正常','0','1','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C25" s="7" t="s">
+        <v>112</v>
       </c>
       <c r="D25" t="s">
         <v>114</v>
@@ -3179,19 +3107,16 @@
       </c>
       <c r="L25" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'24','22','取消','1','2','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+        <v>'OrderDetial_State','取消','1','2','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
       <c r="M25" t="str">
         <f t="shared" si="1"/>
-        <v>insert into sys_codelist(id,parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('24','22','取消','1','2','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B26">
-        <v>25</v>
-      </c>
-      <c r="C26">
-        <v>22</v>
+        <v>insert into sys_codelist(parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('OrderDetial_State','取消','1','2','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C26" s="7" t="s">
+        <v>112</v>
       </c>
       <c r="D26" t="s">
         <v>115</v>
@@ -3219,17 +3144,14 @@
       </c>
       <c r="L26" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'25','22','数量不足','2','3','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+        <v>'OrderDetial_State','数量不足','2','3','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
       <c r="M26" t="str">
         <f t="shared" si="1"/>
-        <v>insert into sys_codelist(id,parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('25','22','数量不足','2','3','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B27">
-        <v>26</v>
-      </c>
+        <v>insert into sys_codelist(parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('OrderDetial_State','数量不足','2','3','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>74</v>
       </c>
@@ -3259,19 +3181,16 @@
       </c>
       <c r="L27" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'26','ROOT','用户类型','Um_Type','6','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+        <v>'ROOT','用户类型','Um_Type','6','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
       <c r="M27" t="str">
         <f t="shared" si="1"/>
-        <v>insert into sys_codelist(id,parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('26','ROOT','用户类型','Um_Type','6','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B28">
-        <v>27</v>
-      </c>
-      <c r="C28">
-        <v>26</v>
+        <v>insert into sys_codelist(parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('ROOT','用户类型','Um_Type','6','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C28" s="7" t="s">
+        <v>117</v>
       </c>
       <c r="D28" t="s">
         <v>118</v>
@@ -3299,19 +3218,16 @@
       </c>
       <c r="L28" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'27','26','普通用户','0','1','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+        <v>'Um_Type','普通用户','0','1','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
       <c r="M28" t="str">
         <f t="shared" si="1"/>
-        <v>insert into sys_codelist(id,parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('27','26','普通用户','0','1','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B29">
-        <v>28</v>
-      </c>
-      <c r="C29">
-        <v>26</v>
+        <v>insert into sys_codelist(parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('Um_Type','普通用户','0','1','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C29" s="7" t="s">
+        <v>117</v>
       </c>
       <c r="D29" t="s">
         <v>119</v>
@@ -3339,19 +3255,16 @@
       </c>
       <c r="L29" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'28','26','推广用户','1','2','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+        <v>'Um_Type','推广用户','1','2','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
       <c r="M29" t="str">
         <f t="shared" si="1"/>
-        <v>insert into sys_codelist(id,parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('28','26','推广用户','1','2','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B30">
-        <v>29</v>
-      </c>
-      <c r="C30">
-        <v>26</v>
+        <v>insert into sys_codelist(parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('Um_Type','推广用户','1','2','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C30" s="7" t="s">
+        <v>117</v>
       </c>
       <c r="D30" t="s">
         <v>120</v>
@@ -3379,19 +3292,16 @@
       </c>
       <c r="L30" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'29','26','官方用户','2','3','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+        <v>'Um_Type','官方用户','2','3','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
       <c r="M30" t="str">
         <f t="shared" si="1"/>
-        <v>insert into sys_codelist(id,parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('29','26','官方用户','2','3','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B31">
-        <v>30</v>
-      </c>
-      <c r="C31">
-        <v>26</v>
+        <v>insert into sys_codelist(parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('Um_Type','官方用户','2','3','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C31" s="7" t="s">
+        <v>117</v>
       </c>
       <c r="D31" t="s">
         <v>121</v>
@@ -3419,17 +3329,14 @@
       </c>
       <c r="L31" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'30','26','商户用户','3','4','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+        <v>'Um_Type','商户用户','3','4','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
       <c r="M31" t="str">
         <f t="shared" si="1"/>
-        <v>insert into sys_codelist(id,parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('30','26','商户用户','3','4','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B32">
-        <v>31</v>
-      </c>
+        <v>insert into sys_codelist(parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('Um_Type','商户用户','3','4','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>74</v>
       </c>
@@ -3459,19 +3366,16 @@
       </c>
       <c r="L32" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'31','ROOT','加入渠道','Um_Road','7','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+        <v>'ROOT','加入渠道','Um_Road','7','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
       <c r="M32" t="str">
         <f t="shared" si="1"/>
-        <v>insert into sys_codelist(id,parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('31','ROOT','加入渠道','Um_Road','7','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B33">
-        <v>32</v>
-      </c>
-      <c r="C33">
-        <v>31</v>
+        <v>insert into sys_codelist(parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('ROOT','加入渠道','Um_Road','7','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+    </row>
+    <row r="33" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C33" s="7" t="s">
+        <v>123</v>
       </c>
       <c r="D33" t="s">
         <v>124</v>
@@ -3499,19 +3403,16 @@
       </c>
       <c r="L33" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'32','31','线下扫码','0','1','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+        <v>'Um_Road','线下扫码','0','1','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
       <c r="M33" t="str">
         <f t="shared" si="1"/>
-        <v>insert into sys_codelist(id,parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('32','31','线下扫码','0','1','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B34">
-        <v>33</v>
-      </c>
-      <c r="C34">
-        <v>31</v>
+        <v>insert into sys_codelist(parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('Um_Road','线下扫码','0','1','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+    </row>
+    <row r="34" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C34" s="7" t="s">
+        <v>123</v>
       </c>
       <c r="D34" t="s">
         <v>125</v>
@@ -3539,19 +3440,16 @@
       </c>
       <c r="L34" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'33','31','用户推荐','1','2','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+        <v>'Um_Road','用户推荐','1','2','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
       <c r="M34" t="str">
         <f t="shared" si="1"/>
-        <v>insert into sys_codelist(id,parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('33','31','用户推荐','1','2','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B35">
-        <v>34</v>
-      </c>
-      <c r="C35">
-        <v>31</v>
+        <v>insert into sys_codelist(parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('Um_Road','用户推荐','1','2','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+    </row>
+    <row r="35" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C35" s="7" t="s">
+        <v>123</v>
       </c>
       <c r="D35" t="s">
         <v>126</v>
@@ -3579,19 +3477,16 @@
       </c>
       <c r="L35" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'34','31','微信公众号','2','3','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+        <v>'Um_Road','微信公众号','2','3','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
       <c r="M35" t="str">
         <f t="shared" si="1"/>
-        <v>insert into sys_codelist(id,parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('34','31','微信公众号','2','3','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B36">
-        <v>35</v>
-      </c>
-      <c r="C36">
-        <v>31</v>
+        <v>insert into sys_codelist(parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('Um_Road','微信公众号','2','3','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+    </row>
+    <row r="36" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C36" s="7" t="s">
+        <v>123</v>
       </c>
       <c r="D36" t="s">
         <v>127</v>
@@ -3619,19 +3514,16 @@
       </c>
       <c r="L36" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'35','31','微信小程序','3','4','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+        <v>'Um_Road','微信小程序','3','4','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
       <c r="M36" t="str">
         <f t="shared" si="1"/>
-        <v>insert into sys_codelist(id,parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('35','31','微信小程序','3','4','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B37">
-        <v>36</v>
-      </c>
-      <c r="C37">
-        <v>31</v>
+        <v>insert into sys_codelist(parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('Um_Road','微信小程序','3','4','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+    </row>
+    <row r="37" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C37" s="7" t="s">
+        <v>123</v>
       </c>
       <c r="D37" t="s">
         <v>128</v>
@@ -3659,19 +3551,16 @@
       </c>
       <c r="L37" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'36','31','微信推广','4','5','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+        <v>'Um_Road','微信推广','4','5','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
       <c r="M37" t="str">
         <f t="shared" si="1"/>
-        <v>insert into sys_codelist(id,parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('36','31','微信推广','4','5','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B38">
-        <v>37</v>
-      </c>
-      <c r="C38">
-        <v>31</v>
+        <v>insert into sys_codelist(parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('Um_Road','微信推广','4','5','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+    </row>
+    <row r="38" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C38" s="7" t="s">
+        <v>123</v>
       </c>
       <c r="D38" t="s">
         <v>129</v>
@@ -3699,11 +3588,11 @@
       </c>
       <c r="L38" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'37','31','网站','5','6','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+        <v>'Um_Road','网站','5','6','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
       <c r="M38" t="str">
         <f t="shared" si="1"/>
-        <v>insert into sys_codelist(id,parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('37','31','网站','5','6','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+        <v>insert into sys_codelist(parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('Um_Road','网站','5','6','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
     </row>
   </sheetData>

--- a/超速购互联网小卖部项目/DB设计/系统管理基础SQL.xlsx
+++ b/超速购互联网小卖部项目/DB设计/系统管理基础SQL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\MuzeyC_Project\DocumentManage.git\trunk\超速购互联网小卖部项目\DB设计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5E5224-E856-4B75-9D9A-45FD52586AAB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B67848-1434-4A70-89E5-CC34CF490CCE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7040" activeTab="4" xr2:uid="{90062A8D-280E-4EA8-BEA5-6E675B3038D0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7040" activeTab="2" xr2:uid="{90062A8D-280E-4EA8-BEA5-6E675B3038D0}"/>
   </bookViews>
   <sheets>
     <sheet name="用户管理" sheetId="1" r:id="rId1"/>
@@ -217,10 +217,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>insert into Sys_Menu(id,seqno,parentid,menutitle,iconname,pagename,issystemmenu,deleteflag,createtime,createuser,updatetime,updateuser) values(</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>角色编号</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -542,6 +538,10 @@
   </si>
   <si>
     <t>insert into sys_codelist(parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values(</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into Sys_Menu(menuid,seqno,parentid,menutitle,iconname,pagename,issystemmenu,deleteflag,createtime,createuser,updatetime,updateuser) values(</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1295,8 +1295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B287FB32-98B2-459C-A6DB-2C66F5694C7E}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:N2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q2:Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1312,7 +1312,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>30</v>
@@ -1389,7 +1389,7 @@
         <v>15</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>48</v>
+        <v>131</v>
       </c>
       <c r="P2" s="3" t="str">
         <f>"'"&amp;C2&amp;"','"&amp;D2&amp;"','"&amp;E2&amp;"','"&amp;F2&amp;"','"&amp;G2&amp;"','"&amp;H2&amp;"','"&amp;I2&amp;"','"&amp;J2&amp;"','"&amp;K2&amp;"','"&amp;L2&amp;"','"&amp;M2&amp;"','"&amp;N2&amp;"');"</f>
@@ -1397,7 +1397,7 @@
       </c>
       <c r="Q2" t="str">
         <f>_xlfn.CONCAT(O2,P2)</f>
-        <v>insert into Sys_Menu(id,seqno,parentid,menutitle,iconname,pagename,issystemmenu,deleteflag,createtime,createuser,updatetime,updateuser) values('100','1','0','系统管理','fa-cogs','','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+        <v>insert into Sys_Menu(menuid,seqno,parentid,menutitle,iconname,pagename,issystemmenu,deleteflag,createtime,createuser,updatetime,updateuser) values('100','1','0','系统管理','fa-cogs','','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
@@ -1405,7 +1405,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1441,15 +1441,15 @@
         <v>15</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>48</v>
+        <v>131</v>
       </c>
       <c r="P3" s="3" t="str">
         <f t="shared" ref="P3:P17" si="0">"'"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"','"&amp;F3&amp;"','"&amp;G3&amp;"','"&amp;H3&amp;"','"&amp;I3&amp;"','"&amp;J3&amp;"','"&amp;K3&amp;"','"&amp;L3&amp;"','"&amp;M3&amp;"','"&amp;N3&amp;"');"</f>
-        <v>'100','1','100','菜单管理','fa-map-o','Sys001_MenuManage','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+        <v>'101','1','100','菜单管理','fa-map-o','Sys001_MenuManage','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
       <c r="Q3" t="str">
         <f t="shared" ref="Q3:Q17" si="1">_xlfn.CONCAT(O3,P3)</f>
-        <v>insert into Sys_Menu(id,seqno,parentid,menutitle,iconname,pagename,issystemmenu,deleteflag,createtime,createuser,updatetime,updateuser) values('100','1','100','菜单管理','fa-map-o','Sys001_MenuManage','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+        <v>insert into Sys_Menu(menuid,seqno,parentid,menutitle,iconname,pagename,issystemmenu,deleteflag,createtime,createuser,updatetime,updateuser) values('101','1','100','菜单管理','fa-map-o','Sys001_MenuManage','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
@@ -1457,7 +1457,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -1493,15 +1493,15 @@
         <v>15</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>48</v>
+        <v>131</v>
       </c>
       <c r="P4" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'101','2','100','用户管理','fa-user','Sys002_UserManage','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+        <v>'102','2','100','用户管理','fa-user','Sys002_UserManage','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
       <c r="Q4" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Sys_Menu(id,seqno,parentid,menutitle,iconname,pagename,issystemmenu,deleteflag,createtime,createuser,updatetime,updateuser) values('101','2','100','用户管理','fa-user','Sys002_UserManage','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+        <v>insert into Sys_Menu(menuid,seqno,parentid,menutitle,iconname,pagename,issystemmenu,deleteflag,createtime,createuser,updatetime,updateuser) values('102','2','100','用户管理','fa-user','Sys002_UserManage','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1509,7 +1509,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -1545,15 +1545,15 @@
         <v>15</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>48</v>
+        <v>131</v>
       </c>
       <c r="P5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'102','3','100','角色管理','fa-users','Sys003_RoleManage','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+        <v>'103','3','100','角色管理','fa-users','Sys003_RoleManage','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
       <c r="Q5" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Sys_Menu(id,seqno,parentid,menutitle,iconname,pagename,issystemmenu,deleteflag,createtime,createuser,updatetime,updateuser) values('102','3','100','角色管理','fa-users','Sys003_RoleManage','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+        <v>insert into Sys_Menu(menuid,seqno,parentid,menutitle,iconname,pagename,issystemmenu,deleteflag,createtime,createuser,updatetime,updateuser) values('103','3','100','角色管理','fa-users','Sys003_RoleManage','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1561,7 +1561,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D6">
         <v>4</v>
@@ -1570,10 +1570,10 @@
         <v>100</v>
       </c>
       <c r="F6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" t="s">
         <v>52</v>
-      </c>
-      <c r="H6" t="s">
-        <v>53</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -1594,15 +1594,15 @@
         <v>15</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>48</v>
+        <v>131</v>
       </c>
       <c r="P6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'103','4','100','数据字典','','Sys007_CodeList','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+        <v>'104','4','100','数据字典','','Sys007_CodeList','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
       <c r="Q6" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Sys_Menu(id,seqno,parentid,menutitle,iconname,pagename,issystemmenu,deleteflag,createtime,createuser,updatetime,updateuser) values('103','4','100','数据字典','','Sys007_CodeList','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+        <v>insert into Sys_Menu(menuid,seqno,parentid,menutitle,iconname,pagename,issystemmenu,deleteflag,createtime,createuser,updatetime,updateuser) values('104','4','100','数据字典','','Sys007_CodeList','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1610,7 +1610,7 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -1619,7 +1619,7 @@
         <v>100</v>
       </c>
       <c r="F7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -1640,15 +1640,15 @@
         <v>15</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>48</v>
+        <v>131</v>
       </c>
       <c r="P7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'104','5','100','图片管理','','','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+        <v>'105','5','100','图片管理','','','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
       <c r="Q7" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Sys_Menu(id,seqno,parentid,menutitle,iconname,pagename,issystemmenu,deleteflag,createtime,createuser,updatetime,updateuser) values('104','5','100','图片管理','','','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+        <v>insert into Sys_Menu(menuid,seqno,parentid,menutitle,iconname,pagename,issystemmenu,deleteflag,createtime,createuser,updatetime,updateuser) values('105','5','100','图片管理','','','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1656,7 +1656,7 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D8">
         <v>6</v>
@@ -1665,7 +1665,7 @@
         <v>100</v>
       </c>
       <c r="F8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -1686,15 +1686,15 @@
         <v>15</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>48</v>
+        <v>131</v>
       </c>
       <c r="P8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'105','6','100','商品基本信息','','','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+        <v>'106','6','100','商品基本信息','','','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
       <c r="Q8" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Sys_Menu(id,seqno,parentid,menutitle,iconname,pagename,issystemmenu,deleteflag,createtime,createuser,updatetime,updateuser) values('105','6','100','商品基本信息','','','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+        <v>insert into Sys_Menu(menuid,seqno,parentid,menutitle,iconname,pagename,issystemmenu,deleteflag,createtime,createuser,updatetime,updateuser) values('106','6','100','商品基本信息','','','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1702,7 +1702,7 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D9">
         <v>7</v>
@@ -1711,7 +1711,7 @@
         <v>100</v>
       </c>
       <c r="F9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -1732,15 +1732,15 @@
         <v>15</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>48</v>
+        <v>131</v>
       </c>
       <c r="P9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'106','7','100','街道信息','','','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+        <v>'107','7','100','街道信息','','','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
       <c r="Q9" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Sys_Menu(id,seqno,parentid,menutitle,iconname,pagename,issystemmenu,deleteflag,createtime,createuser,updatetime,updateuser) values('106','7','100','街道信息','','','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+        <v>insert into Sys_Menu(menuid,seqno,parentid,menutitle,iconname,pagename,issystemmenu,deleteflag,createtime,createuser,updatetime,updateuser) values('107','7','100','街道信息','','','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1748,7 +1748,7 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D10">
         <v>8</v>
@@ -1757,7 +1757,7 @@
         <v>100</v>
       </c>
       <c r="F10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -1778,15 +1778,15 @@
         <v>15</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>48</v>
+        <v>131</v>
       </c>
       <c r="P10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'107','8','100','小区信息','','','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+        <v>'108','8','100','小区信息','','','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
       <c r="Q10" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Sys_Menu(id,seqno,parentid,menutitle,iconname,pagename,issystemmenu,deleteflag,createtime,createuser,updatetime,updateuser) values('107','8','100','小区信息','','','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+        <v>insert into Sys_Menu(menuid,seqno,parentid,menutitle,iconname,pagename,issystemmenu,deleteflag,createtime,createuser,updatetime,updateuser) values('108','8','100','小区信息','','','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1794,7 +1794,7 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -1803,7 +1803,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -1824,15 +1824,15 @@
         <v>15</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>48</v>
+        <v>131</v>
       </c>
       <c r="P11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'108','2','0','商户管理','','','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+        <v>'109','2','0','商户管理','','','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
       <c r="Q11" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Sys_Menu(id,seqno,parentid,menutitle,iconname,pagename,issystemmenu,deleteflag,createtime,createuser,updatetime,updateuser) values('108','2','0','商户管理','','','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+        <v>insert into Sys_Menu(menuid,seqno,parentid,menutitle,iconname,pagename,issystemmenu,deleteflag,createtime,createuser,updatetime,updateuser) values('109','2','0','商户管理','','','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1840,19 +1840,19 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" t="s">
         <v>54</v>
-      </c>
-      <c r="H12" t="s">
-        <v>55</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -1873,15 +1873,15 @@
         <v>15</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>48</v>
+        <v>131</v>
       </c>
       <c r="P12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'109','1','108','商户基本信息','','Sys005_DMBasicInfo','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+        <v>'110','1','109','商户基本信息','','Sys005_DMBasicInfo','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
       <c r="Q12" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Sys_Menu(id,seqno,parentid,menutitle,iconname,pagename,issystemmenu,deleteflag,createtime,createuser,updatetime,updateuser) values('109','1','108','商户基本信息','','Sys005_DMBasicInfo','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+        <v>insert into Sys_Menu(menuid,seqno,parentid,menutitle,iconname,pagename,issystemmenu,deleteflag,createtime,createuser,updatetime,updateuser) values('110','1','109','商户基本信息','','Sys005_DMBasicInfo','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1889,16 +1889,16 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D13">
         <v>2</v>
       </c>
       <c r="E13">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -1919,15 +1919,15 @@
         <v>15</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>48</v>
+        <v>131</v>
       </c>
       <c r="P13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'110','2','108','商户商品信息','','','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+        <v>'111','2','109','商户商品信息','','','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
       <c r="Q13" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Sys_Menu(id,seqno,parentid,menutitle,iconname,pagename,issystemmenu,deleteflag,createtime,createuser,updatetime,updateuser) values('110','2','108','商户商品信息','','','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+        <v>insert into Sys_Menu(menuid,seqno,parentid,menutitle,iconname,pagename,issystemmenu,deleteflag,createtime,createuser,updatetime,updateuser) values('111','2','109','商户商品信息','','','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1935,16 +1935,16 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D14">
         <v>3</v>
       </c>
       <c r="E14">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -1965,15 +1965,15 @@
         <v>15</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>48</v>
+        <v>131</v>
       </c>
       <c r="P14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'111','3','108','商户订单','','','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+        <v>'112','3','109','商户订单','','','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
       <c r="Q14" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Sys_Menu(id,seqno,parentid,menutitle,iconname,pagename,issystemmenu,deleteflag,createtime,createuser,updatetime,updateuser) values('111','3','108','商户订单','','','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+        <v>insert into Sys_Menu(menuid,seqno,parentid,menutitle,iconname,pagename,issystemmenu,deleteflag,createtime,createuser,updatetime,updateuser) values('112','3','109','商户订单','','','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1981,16 +1981,16 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D15">
         <v>4</v>
       </c>
       <c r="E15">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -2011,15 +2011,15 @@
         <v>15</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>48</v>
+        <v>131</v>
       </c>
       <c r="P15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'112','4','108','商户订单详细','','','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+        <v>'113','4','109','商户订单详细','','','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
       <c r="Q15" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Sys_Menu(id,seqno,parentid,menutitle,iconname,pagename,issystemmenu,deleteflag,createtime,createuser,updatetime,updateuser) values('112','4','108','商户订单详细','','','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+        <v>insert into Sys_Menu(menuid,seqno,parentid,menutitle,iconname,pagename,issystemmenu,deleteflag,createtime,createuser,updatetime,updateuser) values('113','4','109','商户订单详细','','','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2027,7 +2027,7 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D16">
         <v>3</v>
@@ -2036,7 +2036,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -2057,15 +2057,15 @@
         <v>15</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>48</v>
+        <v>131</v>
       </c>
       <c r="P16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'113','3','0','用户管理','','','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+        <v>'114','3','0','用户管理','','','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
       <c r="Q16" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Sys_Menu(id,seqno,parentid,menutitle,iconname,pagename,issystemmenu,deleteflag,createtime,createuser,updatetime,updateuser) values('113','3','0','用户管理','','','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+        <v>insert into Sys_Menu(menuid,seqno,parentid,menutitle,iconname,pagename,issystemmenu,deleteflag,createtime,createuser,updatetime,updateuser) values('114','3','0','用户管理','','','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2073,19 +2073,19 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F17" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" t="s">
         <v>57</v>
-      </c>
-      <c r="H17" t="s">
-        <v>58</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -2106,15 +2106,15 @@
         <v>15</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>48</v>
+        <v>131</v>
       </c>
       <c r="P17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'114','1','113','用户基本信息','','Sys006_UMBasicInfo','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+        <v>'115','1','114','用户基本信息','','Sys006_UMBasicInfo','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
       <c r="Q17" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Sys_Menu(id,seqno,parentid,menutitle,iconname,pagename,issystemmenu,deleteflag,createtime,createuser,updatetime,updateuser) values('114','1','113','用户基本信息','','Sys006_UMBasicInfo','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+        <v>insert into Sys_Menu(menuid,seqno,parentid,menutitle,iconname,pagename,issystemmenu,deleteflag,createtime,createuser,updatetime,updateuser) values('115','1','114','用户基本信息','','Sys006_UMBasicInfo','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
     </row>
   </sheetData>
@@ -2138,7 +2138,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>30</v>
@@ -2164,7 +2164,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J2" s="3" t="str">
         <f>"'"&amp;B2&amp;"','"&amp;C2&amp;"','"&amp;D2&amp;"','"&amp;E2&amp;"','"&amp;F2&amp;"','"&amp;G2&amp;"','"&amp;H2&amp;"');"</f>
@@ -2185,7 +2185,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88300762-FAA3-4692-AF6D-95E8DDBE78D3}">
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
@@ -2202,16 +2202,16 @@
         <v>19</v>
       </c>
       <c r="C1" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="10" t="s">
         <v>60</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>61</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>10</v>
@@ -2228,13 +2228,13 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -2252,7 +2252,7 @@
         <v>15</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L2" s="3" t="str">
         <f>"'"&amp;C2&amp;"','"&amp;D2&amp;"','"&amp;E2&amp;"','"&amp;F2&amp;"','"&amp;G2&amp;"','"&amp;H2&amp;"','"&amp;I2&amp;"','"&amp;J2&amp;"');"</f>
@@ -2265,10 +2265,10 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C3" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E3" s="7">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>15</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L3" s="3" t="str">
         <f t="shared" ref="L3:L38" si="0">"'"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"','"&amp;F3&amp;"','"&amp;G3&amp;"','"&amp;H3&amp;"','"&amp;I3&amp;"','"&amp;J3&amp;"');"</f>
@@ -2302,10 +2302,10 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C4" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E4" s="7">
         <v>1</v>
@@ -2326,7 +2326,7 @@
         <v>15</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L4" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2339,13 +2339,13 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" t="s">
         <v>74</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -2363,7 +2363,7 @@
         <v>15</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L5" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2376,13 +2376,13 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C6" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" t="s">
         <v>76</v>
       </c>
-      <c r="D6" t="s">
-        <v>77</v>
-      </c>
       <c r="E6" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -2400,7 +2400,7 @@
         <v>15</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L6" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2413,13 +2413,13 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C7" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -2437,7 +2437,7 @@
         <v>15</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L7" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2450,13 +2450,13 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C8" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -2474,7 +2474,7 @@
         <v>15</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L8" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2487,13 +2487,13 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C9" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="F9">
         <v>4</v>
@@ -2511,7 +2511,7 @@
         <v>15</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L9" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2524,13 +2524,13 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C10" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="F10">
         <v>5</v>
@@ -2548,7 +2548,7 @@
         <v>15</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L10" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2561,13 +2561,13 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="F11">
         <v>3</v>
@@ -2585,7 +2585,7 @@
         <v>15</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L11" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2598,13 +2598,13 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C12" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" t="s">
         <v>88</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -2622,7 +2622,7 @@
         <v>15</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L12" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2635,13 +2635,13 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C13" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F13">
         <v>2</v>
@@ -2659,7 +2659,7 @@
         <v>15</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L13" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2672,13 +2672,13 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C14" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F14">
         <v>3</v>
@@ -2696,7 +2696,7 @@
         <v>15</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L14" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2709,13 +2709,13 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C15" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F15">
         <v>4</v>
@@ -2733,7 +2733,7 @@
         <v>15</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L15" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2746,13 +2746,13 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C16" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F16">
         <v>5</v>
@@ -2770,7 +2770,7 @@
         <v>15</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L16" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2783,13 +2783,13 @@
     </row>
     <row r="17" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="F17">
         <v>4</v>
@@ -2807,7 +2807,7 @@
         <v>15</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L17" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2820,13 +2820,13 @@
     </row>
     <row r="18" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C18" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" t="s">
         <v>105</v>
       </c>
-      <c r="D18" t="s">
-        <v>106</v>
-      </c>
       <c r="E18" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -2844,7 +2844,7 @@
         <v>15</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L18" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2857,13 +2857,13 @@
     </row>
     <row r="19" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C19" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -2881,7 +2881,7 @@
         <v>15</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L19" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2894,13 +2894,13 @@
     </row>
     <row r="20" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C20" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F20">
         <v>3</v>
@@ -2918,7 +2918,7 @@
         <v>15</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L20" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2931,13 +2931,13 @@
     </row>
     <row r="21" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C21" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F21">
         <v>4</v>
@@ -2955,7 +2955,7 @@
         <v>15</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L21" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2968,13 +2968,13 @@
     </row>
     <row r="22" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C22" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F22">
         <v>5</v>
@@ -2992,7 +2992,7 @@
         <v>15</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L22" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3005,13 +3005,13 @@
     </row>
     <row r="23" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D23" t="s">
+        <v>110</v>
+      </c>
+      <c r="E23" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="F23">
         <v>5</v>
@@ -3029,7 +3029,7 @@
         <v>15</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L23" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3042,13 +3042,13 @@
     </row>
     <row r="24" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C24" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D24" t="s">
         <v>112</v>
       </c>
-      <c r="D24" t="s">
-        <v>113</v>
-      </c>
       <c r="E24" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -3066,7 +3066,7 @@
         <v>15</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L24" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3079,13 +3079,13 @@
     </row>
     <row r="25" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C25" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F25">
         <v>2</v>
@@ -3103,7 +3103,7 @@
         <v>15</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L25" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3116,13 +3116,13 @@
     </row>
     <row r="26" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C26" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F26">
         <v>3</v>
@@ -3140,7 +3140,7 @@
         <v>15</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L26" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3153,13 +3153,13 @@
     </row>
     <row r="27" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D27" t="s">
+        <v>115</v>
+      </c>
+      <c r="E27" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="F27">
         <v>6</v>
@@ -3177,7 +3177,7 @@
         <v>15</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L27" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3190,13 +3190,13 @@
     </row>
     <row r="28" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C28" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D28" t="s">
         <v>117</v>
       </c>
-      <c r="D28" t="s">
-        <v>118</v>
-      </c>
       <c r="E28" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -3214,7 +3214,7 @@
         <v>15</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L28" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3227,13 +3227,13 @@
     </row>
     <row r="29" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C29" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F29">
         <v>2</v>
@@ -3251,7 +3251,7 @@
         <v>15</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L29" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3264,13 +3264,13 @@
     </row>
     <row r="30" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C30" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F30">
         <v>3</v>
@@ -3288,7 +3288,7 @@
         <v>15</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L30" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3301,13 +3301,13 @@
     </row>
     <row r="31" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C31" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D31" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F31">
         <v>4</v>
@@ -3325,7 +3325,7 @@
         <v>15</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L31" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3338,13 +3338,13 @@
     </row>
     <row r="32" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D32" t="s">
+        <v>121</v>
+      </c>
+      <c r="E32" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="F32">
         <v>7</v>
@@ -3362,7 +3362,7 @@
         <v>15</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L32" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3375,13 +3375,13 @@
     </row>
     <row r="33" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C33" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D33" t="s">
         <v>123</v>
       </c>
-      <c r="D33" t="s">
-        <v>124</v>
-      </c>
       <c r="E33" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -3399,7 +3399,7 @@
         <v>15</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L33" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3412,13 +3412,13 @@
     </row>
     <row r="34" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C34" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D34" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F34">
         <v>2</v>
@@ -3436,7 +3436,7 @@
         <v>15</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L34" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3449,13 +3449,13 @@
     </row>
     <row r="35" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C35" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D35" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F35">
         <v>3</v>
@@ -3473,7 +3473,7 @@
         <v>15</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L35" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3486,13 +3486,13 @@
     </row>
     <row r="36" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C36" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D36" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F36">
         <v>4</v>
@@ -3510,7 +3510,7 @@
         <v>15</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L36" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3523,13 +3523,13 @@
     </row>
     <row r="37" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C37" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D37" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F37">
         <v>5</v>
@@ -3547,7 +3547,7 @@
         <v>15</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L37" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3560,13 +3560,13 @@
     </row>
     <row r="38" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C38" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D38" t="s">
+        <v>128</v>
+      </c>
+      <c r="E38" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="F38">
         <v>6</v>
@@ -3584,7 +3584,7 @@
         <v>15</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L38" s="3" t="str">
         <f t="shared" si="0"/>

--- a/超速购互联网小卖部项目/DB设计/系统管理基础SQL.xlsx
+++ b/超速购互联网小卖部项目/DB设计/系统管理基础SQL.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\MuzeyC_Project\DocumentManage.git\trunk\超速购互联网小卖部项目\DB设计\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\木鸡软件项目\GitResouse\DocumentManage\超速购互联网小卖部项目\DB设计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B67848-1434-4A70-89E5-CC34CF490CCE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7040" activeTab="2" xr2:uid="{90062A8D-280E-4EA8-BEA5-6E675B3038D0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7044" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="用户管理" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <sheet name="角色菜单管理" sheetId="4" r:id="rId4"/>
     <sheet name="数据字典" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="179017" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="148">
   <si>
     <t>用户编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -241,19 +240,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Sys005_DMBasicInfo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>用户管理</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>用户基本信息</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sys006_UMBasicInfo</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -293,10 +284,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>商户订单详细</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>编号（数据库自动增长不需要填写）</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -542,13 +529,89 @@
   </si>
   <si>
     <t>insert into Sys_Menu(menuid,seqno,parentid,menutitle,iconname,pagename,issystemmenu,deleteflag,createtime,createuser,updatetime,updateuser) values(</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fa-sitemap</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fa-picture-o</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fa-cutlery</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fa-road</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fa-home</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fa-handshake-o</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fa-id-card-o</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fa-window-restore</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fa-map-o</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fa-user-o</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fa-user-circle-o</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sys008_PhotoInfo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sys009_Commodity</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sys005_Rode</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sys006_Community</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Um001_BasicInfo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dm001_BasicInfo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dm002_Commodity</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dm003_Commodity</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -605,7 +668,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -627,6 +690,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,7 +732,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -699,10 +768,19 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 68" xfId="1" xr:uid="{743846D3-19A3-4E42-AB59-986D73F3200F}"/>
+    <cellStyle name="常规 68" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1013,23 +1091,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3170DFE9-8345-4E6B-979C-785FBD33ADCD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.5" customWidth="1"/>
-    <col min="13" max="13" width="9.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.9140625" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="13" max="13" width="9.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.88671875" customWidth="1"/>
     <col min="19" max="19" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -1079,7 +1157,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1122,62 +1200,62 @@
         <v>insert into Sys_UserInfo(UserId,UserName,Password,Role,Sex,PersonId,Birthday,Email,PhoneNo,DeleteFlag,CreateTime,CreateUser,updatetime,updateuser ) values('admin','admin','VH6uajzmZgk=','0','','','','','','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1190,21 +1268,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAB345A9-C115-480B-B321-3D72EFF7FE25}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.58203125" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" customWidth="1"/>
     <col min="9" max="9" width="8.6640625" style="7"/>
     <col min="11" max="11" width="8.6640625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1242,7 +1320,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1292,27 +1370,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B287FB32-98B2-459C-A6DB-2C66F5694C7E}">
-  <dimension ref="A1:Q17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q2:Q17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="5" max="5" width="13.5" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>30</v>
@@ -1351,56 +1429,56 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="13">
         <v>100</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="13">
         <v>1</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="13">
         <v>0</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="13">
         <v>1</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="13">
         <v>0</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" t="s">
-        <v>15</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="P2" s="3" t="str">
+      <c r="K2" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="P2" s="15" t="str">
         <f>"'"&amp;C2&amp;"','"&amp;D2&amp;"','"&amp;E2&amp;"','"&amp;F2&amp;"','"&amp;G2&amp;"','"&amp;H2&amp;"','"&amp;I2&amp;"','"&amp;J2&amp;"','"&amp;K2&amp;"','"&amp;L2&amp;"','"&amp;M2&amp;"','"&amp;N2&amp;"');"</f>
         <v>'100','1','0','系统管理','fa-cogs','','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
-      <c r="Q2" t="str">
-        <f>_xlfn.CONCAT(O2,P2)</f>
-        <v>insert into Sys_Menu(menuid,seqno,parentid,menutitle,iconname,pagename,issystemmenu,deleteflag,createtime,createuser,updatetime,updateuser) values('100','1','0','系统管理','fa-cogs','','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q2" s="13" t="e">
+        <f ca="1">_xlfn.CONCAT(O2,P2)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1441,18 +1519,18 @@
         <v>15</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="P3" s="3" t="str">
-        <f t="shared" ref="P3:P17" si="0">"'"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"','"&amp;F3&amp;"','"&amp;G3&amp;"','"&amp;H3&amp;"','"&amp;I3&amp;"','"&amp;J3&amp;"','"&amp;K3&amp;"','"&amp;L3&amp;"','"&amp;M3&amp;"','"&amp;N3&amp;"');"</f>
+        <f t="shared" ref="P3:P16" si="0">"'"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"','"&amp;F3&amp;"','"&amp;G3&amp;"','"&amp;H3&amp;"','"&amp;I3&amp;"','"&amp;J3&amp;"','"&amp;K3&amp;"','"&amp;L3&amp;"','"&amp;M3&amp;"','"&amp;N3&amp;"');"</f>
         <v>'101','1','100','菜单管理','fa-map-o','Sys001_MenuManage','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
-      <c r="Q3" t="str">
-        <f t="shared" ref="Q3:Q17" si="1">_xlfn.CONCAT(O3,P3)</f>
-        <v>insert into Sys_Menu(menuid,seqno,parentid,menutitle,iconname,pagename,issystemmenu,deleteflag,createtime,createuser,updatetime,updateuser) values('101','1','100','菜单管理','fa-map-o','Sys001_MenuManage','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q3" t="e">
+        <f t="shared" ref="Q3:Q16" ca="1" si="1">_xlfn.CONCAT(O3,P3)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1493,18 +1571,18 @@
         <v>15</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="P4" s="3" t="str">
         <f t="shared" si="0"/>
         <v>'102','2','100','用户管理','fa-user','Sys002_UserManage','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
-      <c r="Q4" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Sys_Menu(menuid,seqno,parentid,menutitle,iconname,pagename,issystemmenu,deleteflag,createtime,createuser,updatetime,updateuser) values('102','2','100','用户管理','fa-user','Sys002_UserManage','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q4" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1545,18 +1623,18 @@
         <v>15</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="P5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>'103','3','100','角色管理','fa-users','Sys003_RoleManage','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
-      <c r="Q5" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Sys_Menu(menuid,seqno,parentid,menutitle,iconname,pagename,issystemmenu,deleteflag,createtime,createuser,updatetime,updateuser) values('103','3','100','角色管理','fa-users','Sys003_RoleManage','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q5" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1572,6 +1650,9 @@
       <c r="F6" t="s">
         <v>51</v>
       </c>
+      <c r="G6" t="s">
+        <v>129</v>
+      </c>
       <c r="H6" t="s">
         <v>52</v>
       </c>
@@ -1594,18 +1675,18 @@
         <v>15</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="P6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'104','4','100','数据字典','','Sys007_CodeList','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
-      </c>
-      <c r="Q6" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Sys_Menu(menuid,seqno,parentid,menutitle,iconname,pagename,issystemmenu,deleteflag,createtime,createuser,updatetime,updateuser) values('104','4','100','数据字典','','Sys007_CodeList','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+        <v>'104','4','100','数据字典','fa-sitemap','Sys007_CodeList','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+      <c r="Q6" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1619,7 +1700,13 @@
         <v>100</v>
       </c>
       <c r="F7" t="s">
-        <v>61</v>
+        <v>59</v>
+      </c>
+      <c r="G7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H7" t="s">
+        <v>140</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -1640,18 +1727,18 @@
         <v>15</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="P7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'105','5','100','图片管理','','','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
-      </c>
-      <c r="Q7" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Sys_Menu(menuid,seqno,parentid,menutitle,iconname,pagename,issystemmenu,deleteflag,createtime,createuser,updatetime,updateuser) values('105','5','100','图片管理','','','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+        <v>'105','5','100','图片管理','fa-picture-o','Sys008_PhotoInfo','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+      <c r="Q7" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1665,7 +1752,13 @@
         <v>100</v>
       </c>
       <c r="F8" t="s">
-        <v>62</v>
+        <v>60</v>
+      </c>
+      <c r="G8" t="s">
+        <v>131</v>
+      </c>
+      <c r="H8" t="s">
+        <v>141</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -1686,18 +1779,18 @@
         <v>15</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="P8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'106','6','100','商品基本信息','','','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
-      </c>
-      <c r="Q8" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Sys_Menu(menuid,seqno,parentid,menutitle,iconname,pagename,issystemmenu,deleteflag,createtime,createuser,updatetime,updateuser) values('106','6','100','商品基本信息','','','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+        <v>'106','6','100','商品基本信息','fa-cutlery','Sys009_Commodity','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+      <c r="Q8" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1711,7 +1804,13 @@
         <v>100</v>
       </c>
       <c r="F9" t="s">
-        <v>63</v>
+        <v>61</v>
+      </c>
+      <c r="G9" t="s">
+        <v>132</v>
+      </c>
+      <c r="H9" t="s">
+        <v>142</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -1732,18 +1831,18 @@
         <v>15</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="P9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'107','7','100','街道信息','','','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
-      </c>
-      <c r="Q9" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Sys_Menu(menuid,seqno,parentid,menutitle,iconname,pagename,issystemmenu,deleteflag,createtime,createuser,updatetime,updateuser) values('107','7','100','街道信息','','','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+        <v>'107','7','100','街道信息','fa-road','Sys005_Rode','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+      <c r="Q9" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1757,7 +1856,13 @@
         <v>100</v>
       </c>
       <c r="F10" t="s">
-        <v>64</v>
+        <v>62</v>
+      </c>
+      <c r="G10" t="s">
+        <v>133</v>
+      </c>
+      <c r="H10" t="s">
+        <v>143</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -1778,64 +1883,67 @@
         <v>15</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="P10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'108','8','100','小区信息','','','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
-      </c>
-      <c r="Q10" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Sys_Menu(menuid,seqno,parentid,menutitle,iconname,pagename,issystemmenu,deleteflag,createtime,createuser,updatetime,updateuser) values('108','8','100','小区信息','','','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11">
+        <v>'108','8','100','小区信息','fa-home','Sys006_Community','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+      <c r="Q10" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
         <v>10</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="13">
         <v>109</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="13">
         <v>2</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="13">
         <v>0</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="I11">
+      <c r="G11" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="I11" s="13">
         <v>1</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="13">
         <v>0</v>
       </c>
-      <c r="K11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L11" t="s">
-        <v>15</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N11" t="s">
-        <v>15</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="P11" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>'109','2','0','商户管理','','','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
-      </c>
-      <c r="Q11" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Sys_Menu(menuid,seqno,parentid,menutitle,iconname,pagename,issystemmenu,deleteflag,createtime,createuser,updatetime,updateuser) values('109','2','0','商户管理','','','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="K11" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M11" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="O11" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="P11" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>'109','2','0','商户管理','fa-handshake-o','','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+      <c r="Q11" s="13" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1851,8 +1959,11 @@
       <c r="F12" t="s">
         <v>53</v>
       </c>
+      <c r="G12" t="s">
+        <v>135</v>
+      </c>
       <c r="H12" t="s">
-        <v>54</v>
+        <v>145</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -1873,18 +1984,18 @@
         <v>15</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="P12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'110','1','109','商户基本信息','','Sys005_DMBasicInfo','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
-      </c>
-      <c r="Q12" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Sys_Menu(menuid,seqno,parentid,menutitle,iconname,pagename,issystemmenu,deleteflag,createtime,createuser,updatetime,updateuser) values('110','1','109','商户基本信息','','Sys005_DMBasicInfo','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+        <v>'110','1','109','商户基本信息','fa-id-card-o','Dm001_BasicInfo','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+      <c r="Q12" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1898,7 +2009,13 @@
         <v>109</v>
       </c>
       <c r="F13" t="s">
-        <v>65</v>
+        <v>63</v>
+      </c>
+      <c r="G13" t="s">
+        <v>136</v>
+      </c>
+      <c r="H13" t="s">
+        <v>146</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -1919,18 +2036,18 @@
         <v>15</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="P13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'111','2','109','商户商品信息','','','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
-      </c>
-      <c r="Q13" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Sys_Menu(menuid,seqno,parentid,menutitle,iconname,pagename,issystemmenu,deleteflag,createtime,createuser,updatetime,updateuser) values('111','2','109','商户商品信息','','','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+        <v>'111','2','109','商户商品信息','fa-window-restore','Dm002_Commodity','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+      <c r="Q13" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1944,7 +2061,13 @@
         <v>109</v>
       </c>
       <c r="F14" t="s">
-        <v>66</v>
+        <v>64</v>
+      </c>
+      <c r="G14" t="s">
+        <v>137</v>
+      </c>
+      <c r="H14" t="s">
+        <v>147</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -1965,79 +2088,88 @@
         <v>15</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="P14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'112','3','109','商户订单','','','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
-      </c>
-      <c r="Q14" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Sys_Menu(menuid,seqno,parentid,menutitle,iconname,pagename,issystemmenu,deleteflag,createtime,createuser,updatetime,updateuser) values('112','3','109','商户订单','','','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="C15">
+        <v>'112','3','109','商户订单','fa-map-o','Dm003_Commodity','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+      <c r="Q14" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="13">
+        <v>15</v>
+      </c>
+      <c r="C15" s="13">
         <v>113</v>
       </c>
-      <c r="D15">
-        <v>4</v>
-      </c>
-      <c r="E15">
-        <v>109</v>
-      </c>
-      <c r="F15" t="s">
-        <v>67</v>
-      </c>
-      <c r="I15">
+      <c r="D15" s="13">
+        <v>3</v>
+      </c>
+      <c r="E15" s="13">
+        <v>0</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="I15" s="13">
         <v>1</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="13">
         <v>0</v>
       </c>
-      <c r="K15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L15" t="s">
-        <v>15</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="P15" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>'113','4','109','商户订单详细','','','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
-      </c>
-      <c r="Q15" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Sys_Menu(menuid,seqno,parentid,menutitle,iconname,pagename,issystemmenu,deleteflag,createtime,createuser,updatetime,updateuser) values('113','4','109','商户订单详细','','','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="K15" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M15" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="N15" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="O15" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="P15" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>'113','3','0','用户管理','fa-user-o','','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+      <c r="Q15" s="13" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C16">
         <v>114</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="F16" t="s">
         <v>55</v>
       </c>
+      <c r="G16" t="s">
+        <v>139</v>
+      </c>
+      <c r="H16" t="s">
+        <v>144</v>
+      </c>
       <c r="I16">
         <v>1</v>
       </c>
@@ -2057,83 +2189,35 @@
         <v>15</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="P16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'114','3','0','用户管理','','','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
-      </c>
-      <c r="Q16" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Sys_Menu(menuid,seqno,parentid,menutitle,iconname,pagename,issystemmenu,deleteflag,createtime,createuser,updatetime,updateuser) values('114','3','0','用户管理','','','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="C17">
-        <v>115</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>114</v>
-      </c>
-      <c r="F17" t="s">
-        <v>56</v>
-      </c>
-      <c r="H17" t="s">
-        <v>57</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L17" t="s">
-        <v>15</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N17" t="s">
-        <v>15</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="P17" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>'115','1','114','用户基本信息','','Sys006_UMBasicInfo','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
-      </c>
-      <c r="Q17" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Sys_Menu(menuid,seqno,parentid,menutitle,iconname,pagename,issystemmenu,deleteflag,createtime,createuser,updatetime,updateuser) values('115','1','114','用户基本信息','','Sys006_UMBasicInfo','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+        <v>'114','1','113','用户基本信息','fa-user-circle-o','Um001_BasicInfo','1','0','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
+      </c>
+      <c r="Q16" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5F67A1E-9E7B-442C-9F7B-F9B7F891348A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2159,7 +2243,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2182,19 +2266,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88300762-FAA3-4692-AF6D-95E8DDBE78D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="8.6640625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2202,16 +2286,16 @@
         <v>19</v>
       </c>
       <c r="C1" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>58</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>60</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>10</v>
@@ -2226,15 +2310,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -2252,7 +2336,7 @@
         <v>15</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L2" s="3" t="str">
         <f>"'"&amp;C2&amp;"','"&amp;D2&amp;"','"&amp;E2&amp;"','"&amp;F2&amp;"','"&amp;G2&amp;"','"&amp;H2&amp;"','"&amp;I2&amp;"','"&amp;J2&amp;"');"</f>
@@ -2263,12 +2347,12 @@
         <v>insert into sys_codelist(parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('ROOT','图片类型','Picture_Type','1','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C3" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E3" s="7">
         <v>0</v>
@@ -2289,7 +2373,7 @@
         <v>15</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L3" s="3" t="str">
         <f t="shared" ref="L3:L38" si="0">"'"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"','"&amp;F3&amp;"','"&amp;G3&amp;"','"&amp;H3&amp;"','"&amp;I3&amp;"','"&amp;J3&amp;"');"</f>
@@ -2300,12 +2384,12 @@
         <v>insert into sys_codelist(parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('Picture_Type','本地图片','0','1','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C4" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E4" s="7">
         <v>1</v>
@@ -2326,7 +2410,7 @@
         <v>15</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L4" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2337,15 +2421,15 @@
         <v>insert into sys_codelist(parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('Picture_Type','网络图片','1','2','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -2363,7 +2447,7 @@
         <v>15</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L5" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2374,15 +2458,15 @@
         <v>insert into sys_codelist(parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('ROOT','图片用途','Picture_Use_Type','2','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C6" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -2400,7 +2484,7 @@
         <v>15</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L6" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2411,15 +2495,15 @@
         <v>insert into sys_codelist(parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('Picture_Use_Type','系统','00','1','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C7" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -2437,7 +2521,7 @@
         <v>15</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L7" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2448,15 +2532,15 @@
         <v>insert into sys_codelist(parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('Picture_Use_Type','广告图片','01','2','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C8" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" t="s">
         <v>75</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -2474,7 +2558,7 @@
         <v>15</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L8" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2485,15 +2569,15 @@
         <v>insert into sys_codelist(parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('Picture_Use_Type','商品图片','02','3','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C9" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F9">
         <v>4</v>
@@ -2511,7 +2595,7 @@
         <v>15</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L9" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2522,15 +2606,15 @@
         <v>insert into sys_codelist(parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('Picture_Use_Type','用户头像','03','4','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C10" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F10">
         <v>5</v>
@@ -2548,7 +2632,7 @@
         <v>15</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L10" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2559,15 +2643,15 @@
         <v>insert into sys_codelist(parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('Picture_Use_Type','商户照片','04','5','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D11" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F11">
         <v>3</v>
@@ -2585,7 +2669,7 @@
         <v>15</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L11" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2596,15 +2680,15 @@
         <v>insert into sys_codelist(parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('ROOT','商户状态','Dm_State','3','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C12" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -2622,7 +2706,7 @@
         <v>15</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L12" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2633,15 +2717,15 @@
         <v>insert into sys_codelist(parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('Dm_State','待审批','0','1','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" t="s">
         <v>87</v>
       </c>
-      <c r="D13" t="s">
-        <v>90</v>
-      </c>
       <c r="E13" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F13">
         <v>2</v>
@@ -2659,7 +2743,7 @@
         <v>15</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L13" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2670,15 +2754,15 @@
         <v>insert into sys_codelist(parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('Dm_State','运营中','1','2','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C14" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F14">
         <v>3</v>
@@ -2696,7 +2780,7 @@
         <v>15</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L14" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2707,15 +2791,15 @@
         <v>insert into sys_codelist(parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('Dm_State','休息','2','3','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C15" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D15" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F15">
         <v>4</v>
@@ -2733,7 +2817,7 @@
         <v>15</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L15" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2744,15 +2828,15 @@
         <v>insert into sys_codelist(parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('Dm_State','关闭','3','4','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C16" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F16">
         <v>5</v>
@@ -2770,7 +2854,7 @@
         <v>15</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L16" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2781,15 +2865,15 @@
         <v>insert into sys_codelist(parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('Dm_State','非法','4','5','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
     </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D17" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F17">
         <v>4</v>
@@ -2807,7 +2891,7 @@
         <v>15</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L17" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2818,15 +2902,15 @@
         <v>insert into sys_codelist(parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('ROOT','订单状态','Order_State','4','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C18" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D18" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -2844,7 +2928,7 @@
         <v>15</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L18" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2855,15 +2939,15 @@
         <v>insert into sys_codelist(parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('Order_State','待接单','0','1','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C19" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D19" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -2881,7 +2965,7 @@
         <v>15</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L19" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2892,15 +2976,15 @@
         <v>insert into sys_codelist(parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('Order_State','已接单','1','2','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
     </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C20" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" t="s">
         <v>104</v>
       </c>
-      <c r="D20" t="s">
-        <v>107</v>
-      </c>
       <c r="E20" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F20">
         <v>3</v>
@@ -2918,7 +3002,7 @@
         <v>15</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L20" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2929,15 +3013,15 @@
         <v>insert into sys_codelist(parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('Order_State','配送中','2','3','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C21" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D21" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F21">
         <v>4</v>
@@ -2955,7 +3039,7 @@
         <v>15</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L21" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2966,15 +3050,15 @@
         <v>insert into sys_codelist(parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('Order_State','完成','3','4','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C22" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D22" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F22">
         <v>5</v>
@@ -2992,7 +3076,7 @@
         <v>15</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L22" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3003,15 +3087,15 @@
         <v>insert into sys_codelist(parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('Order_State','取消','4','5','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D23" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F23">
         <v>5</v>
@@ -3029,7 +3113,7 @@
         <v>15</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L23" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3040,15 +3124,15 @@
         <v>insert into sys_codelist(parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('ROOT','订单详细状态','OrderDetial_State','5','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C24" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D24" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -3066,7 +3150,7 @@
         <v>15</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L24" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3077,15 +3161,15 @@
         <v>insert into sys_codelist(parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('OrderDetial_State','正常','0','1','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C25" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D25" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F25">
         <v>2</v>
@@ -3103,7 +3187,7 @@
         <v>15</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L25" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3114,15 +3198,15 @@
         <v>insert into sys_codelist(parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('OrderDetial_State','取消','1','2','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
     </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C26" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D26" t="s">
         <v>111</v>
       </c>
-      <c r="D26" t="s">
-        <v>114</v>
-      </c>
       <c r="E26" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F26">
         <v>3</v>
@@ -3140,7 +3224,7 @@
         <v>15</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L26" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3151,15 +3235,15 @@
         <v>insert into sys_codelist(parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('OrderDetial_State','数量不足','2','3','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D27" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F27">
         <v>6</v>
@@ -3177,7 +3261,7 @@
         <v>15</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L27" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3188,15 +3272,15 @@
         <v>insert into sys_codelist(parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('ROOT','用户类型','Um_Type','6','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C28" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D28" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -3214,7 +3298,7 @@
         <v>15</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L28" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3225,15 +3309,15 @@
         <v>insert into sys_codelist(parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('Um_Type','普通用户','0','1','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
     </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C29" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D29" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F29">
         <v>2</v>
@@ -3251,7 +3335,7 @@
         <v>15</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L29" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3262,15 +3346,15 @@
         <v>insert into sys_codelist(parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('Um_Type','推广用户','1','2','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C30" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D30" t="s">
         <v>116</v>
       </c>
-      <c r="D30" t="s">
-        <v>119</v>
-      </c>
       <c r="E30" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F30">
         <v>3</v>
@@ -3288,7 +3372,7 @@
         <v>15</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L30" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3299,15 +3383,15 @@
         <v>insert into sys_codelist(parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('Um_Type','官方用户','2','3','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
     </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C31" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D31" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F31">
         <v>4</v>
@@ -3325,7 +3409,7 @@
         <v>15</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L31" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3336,15 +3420,15 @@
         <v>insert into sys_codelist(parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('Um_Type','商户用户','3','4','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
     </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D32" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F32">
         <v>7</v>
@@ -3362,7 +3446,7 @@
         <v>15</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L32" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3373,15 +3457,15 @@
         <v>insert into sys_codelist(parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('ROOT','加入渠道','Um_Road','7','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
     </row>
-    <row r="33" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C33" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D33" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -3399,7 +3483,7 @@
         <v>15</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L33" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3410,15 +3494,15 @@
         <v>insert into sys_codelist(parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('Um_Road','线下扫码','0','1','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
     </row>
-    <row r="34" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C34" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D34" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F34">
         <v>2</v>
@@ -3436,7 +3520,7 @@
         <v>15</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L34" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3447,15 +3531,15 @@
         <v>insert into sys_codelist(parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('Um_Road','用户推荐','1','2','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
     </row>
-    <row r="35" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C35" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D35" t="s">
         <v>122</v>
       </c>
-      <c r="D35" t="s">
-        <v>125</v>
-      </c>
       <c r="E35" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F35">
         <v>3</v>
@@ -3473,7 +3557,7 @@
         <v>15</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L35" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3484,15 +3568,15 @@
         <v>insert into sys_codelist(parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('Um_Road','微信公众号','2','3','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
     </row>
-    <row r="36" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C36" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D36" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F36">
         <v>4</v>
@@ -3510,7 +3594,7 @@
         <v>15</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L36" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3521,15 +3605,15 @@
         <v>insert into sys_codelist(parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('Um_Road','微信小程序','3','4','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
     </row>
-    <row r="37" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C37" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D37" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F37">
         <v>5</v>
@@ -3547,7 +3631,7 @@
         <v>15</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L37" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3558,15 +3642,15 @@
         <v>insert into sys_codelist(parentId,name,codeName,no,createtime,createuser,updatetime,updateuser) values('Um_Road','微信推广','4','5','2017/9/13  14:45:00','admin','2017/9/13  14:45:00','admin');</v>
       </c>
     </row>
-    <row r="38" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C38" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D38" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F38">
         <v>6</v>
@@ -3584,7 +3668,7 @@
         <v>15</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L38" s="3" t="str">
         <f t="shared" si="0"/>
